--- a/docs/requirements/Master Data Tables - Test Data/master-machine_type.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-machine_type.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>code</t>
   </si>
@@ -42,15 +42,6 @@
     <t>cr_dtimes</t>
   </si>
   <si>
-    <t>DNG</t>
-  </si>
-  <si>
-    <t>Dongle</t>
-  </si>
-  <si>
-    <t>To run enrollment client</t>
-  </si>
-  <si>
     <t>eng</t>
   </si>
   <si>
@@ -60,19 +51,31 @@
     <t>now()</t>
   </si>
   <si>
-    <t>دونجل</t>
-  </si>
-  <si>
-    <t>لتشغيل عميل التسجيل</t>
-  </si>
-  <si>
     <t>ara</t>
   </si>
   <si>
-    <t>Pour exécuter le client dinscription</t>
-  </si>
-  <si>
     <t>fra</t>
+  </si>
+  <si>
+    <t>DKS</t>
+  </si>
+  <si>
+    <t>Dekstop</t>
+  </si>
+  <si>
+    <t>Desktop Computer</t>
+  </si>
+  <si>
+    <t>الحاسوب</t>
+  </si>
+  <si>
+    <t>أجهزة الكمبيوتر المكتبية</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Ordinateurs de bureau</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -944,74 +949,75 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>